--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HG2"/>
+  <dimension ref="B1:HG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,491 +1505,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Pablo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Manuel</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SGI</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Desarrollador</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Asociados &amp; Asociados</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Productos Naturales: Animal </t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Software</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Sistemas operativos</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Otra </t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>computador</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>unidades</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>5 millones</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Lapiceros</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>10</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>unidades</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>200000</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Windows</t>
-        </is>
-      </c>
-      <c r="AF2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Mac OS</t>
-        </is>
-      </c>
-      <c r="AH2" t="n">
-        <v>170000</v>
-      </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>Superior a $ 3.000.000</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>OTROTROTROTROTRO</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>Sitio</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>mi local</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>computador</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>Lenovo Inc</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>Quincenal</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Anual</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>Continuar con la actividad</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>Permanecer con la misma producción</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>Acueducto Veredal</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>Acueducto</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>1 m3</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>alcantarillado</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>Energía Eléctrica</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>Energía eléctrica</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>OTROOTROTRO</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>ninguno</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>Contratado</t>
-        </is>
-      </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="BQ2" t="n">
-        <v>22</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>Bachillerato</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>Tem.</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>sadg</t>
-        </is>
-      </c>
-      <c r="BW2" t="inlineStr">
-        <is>
-          <t>sdfg</t>
-        </is>
-      </c>
-      <c r="BX2" t="inlineStr">
-        <is>
-          <t>gb</t>
-        </is>
-      </c>
-      <c r="BY2" t="n">
-        <v>234</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA2" t="inlineStr">
-        <is>
-          <t>sdg</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>Superiores a $2.701.000</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="inlineStr"/>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
-      <c r="CP2" t="inlineStr"/>
-      <c r="CQ2" t="inlineStr"/>
-      <c r="CR2" t="inlineStr"/>
-      <c r="CS2" t="inlineStr"/>
-      <c r="CT2" t="inlineStr"/>
-      <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="inlineStr"/>
-      <c r="CW2" t="inlineStr"/>
-      <c r="CX2" t="inlineStr"/>
-      <c r="CY2" t="inlineStr"/>
-      <c r="CZ2" t="inlineStr"/>
-      <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="inlineStr"/>
-      <c r="DC2" t="inlineStr"/>
-      <c r="DD2" t="inlineStr"/>
-      <c r="DE2" t="inlineStr"/>
-      <c r="DF2" t="inlineStr"/>
-      <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="inlineStr"/>
-      <c r="DI2" t="inlineStr"/>
-      <c r="DJ2" t="inlineStr"/>
-      <c r="DK2" t="inlineStr"/>
-      <c r="DL2" t="inlineStr"/>
-      <c r="DM2" t="inlineStr"/>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr"/>
-      <c r="DP2" t="inlineStr"/>
-      <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr"/>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="inlineStr"/>
-      <c r="DU2" t="inlineStr"/>
-      <c r="DV2" t="inlineStr"/>
-      <c r="DW2" t="inlineStr"/>
-      <c r="DX2" t="inlineStr"/>
-      <c r="DY2" t="inlineStr"/>
-      <c r="DZ2" t="inlineStr"/>
-      <c r="EA2" t="inlineStr"/>
-      <c r="EB2" t="inlineStr"/>
-      <c r="EC2" t="inlineStr"/>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="inlineStr"/>
-      <c r="EG2" t="inlineStr"/>
-      <c r="EH2" t="inlineStr"/>
-      <c r="EI2" t="inlineStr"/>
-      <c r="EJ2" t="inlineStr"/>
-      <c r="EK2" t="inlineStr"/>
-      <c r="EL2" t="inlineStr"/>
-      <c r="EM2" t="inlineStr"/>
-      <c r="EN2" t="inlineStr"/>
-      <c r="EO2" t="inlineStr"/>
-      <c r="EP2" t="inlineStr"/>
-      <c r="EQ2" t="inlineStr"/>
-      <c r="ER2" t="inlineStr"/>
-      <c r="ES2" t="inlineStr"/>
-      <c r="ET2" t="inlineStr"/>
-      <c r="EU2" t="inlineStr"/>
-      <c r="EV2" t="inlineStr"/>
-      <c r="EW2" t="inlineStr"/>
-      <c r="EX2" t="inlineStr"/>
-      <c r="EY2" t="inlineStr"/>
-      <c r="EZ2" t="inlineStr"/>
-      <c r="FA2" t="inlineStr"/>
-      <c r="FB2" t="inlineStr"/>
-      <c r="FC2" t="inlineStr"/>
-      <c r="FD2" t="inlineStr"/>
-      <c r="FE2" t="inlineStr"/>
-      <c r="FF2" t="inlineStr"/>
-      <c r="FG2" t="inlineStr"/>
-      <c r="FH2" t="inlineStr"/>
-      <c r="FI2" t="inlineStr"/>
-      <c r="FJ2" t="inlineStr"/>
-      <c r="FK2" t="inlineStr"/>
-      <c r="FL2" t="inlineStr"/>
-      <c r="FM2" t="inlineStr"/>
-      <c r="FN2" t="inlineStr"/>
-      <c r="FO2" t="inlineStr"/>
-      <c r="FP2" t="inlineStr"/>
-      <c r="FQ2" t="inlineStr"/>
-      <c r="FR2" t="inlineStr"/>
-      <c r="FS2" t="inlineStr"/>
-      <c r="FT2" t="inlineStr"/>
-      <c r="FU2" t="inlineStr"/>
-      <c r="FV2" t="inlineStr"/>
-      <c r="FW2" t="inlineStr"/>
-      <c r="FX2" t="inlineStr"/>
-      <c r="FY2" t="inlineStr"/>
-      <c r="FZ2" t="inlineStr"/>
-      <c r="GA2" t="inlineStr"/>
-      <c r="GB2" t="inlineStr"/>
-      <c r="GC2" t="inlineStr"/>
-      <c r="GD2" t="inlineStr"/>
-      <c r="GE2" t="inlineStr"/>
-      <c r="GF2" t="inlineStr"/>
-      <c r="GG2" t="inlineStr"/>
-      <c r="GH2" t="inlineStr"/>
-      <c r="GI2" t="inlineStr"/>
-      <c r="GJ2" t="inlineStr"/>
-      <c r="GK2" t="inlineStr"/>
-      <c r="GL2" t="inlineStr"/>
-      <c r="GM2" t="inlineStr"/>
-      <c r="GN2" t="inlineStr"/>
-      <c r="GO2" t="inlineStr"/>
-      <c r="GP2" t="inlineStr"/>
-      <c r="GQ2" t="inlineStr"/>
-      <c r="GR2" t="inlineStr"/>
-      <c r="GS2" t="inlineStr"/>
-      <c r="GT2" t="inlineStr"/>
-      <c r="GU2" t="inlineStr"/>
-      <c r="GV2" t="inlineStr"/>
-      <c r="GW2" t="inlineStr"/>
-      <c r="GX2" t="inlineStr"/>
-      <c r="GY2" t="inlineStr"/>
-      <c r="GZ2" t="inlineStr"/>
-      <c r="HA2" t="inlineStr"/>
-      <c r="HB2" t="inlineStr"/>
-      <c r="HC2" t="inlineStr"/>
-      <c r="HD2" t="inlineStr"/>
-      <c r="HE2" t="inlineStr"/>
-      <c r="HF2" t="inlineStr"/>
-      <c r="HG2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
